--- a/xlsx/文化人类学_intext.xlsx
+++ b/xlsx/文化人类学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>文化人类学</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>政策_政策_政治_文化人类学</t>
@@ -35,49 +35,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%B3%AA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>體質人類學</t>
+    <t>体质人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言人類學</t>
+    <t>语言人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會人類學</t>
+    <t>社会人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用人類學</t>
+    <t>应用人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%8C</t>
   </si>
   <si>
-    <t>民族誌</t>
+    <t>民族志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%88%87%E8%A7%80%E5%AF%9F</t>
   </si>
   <si>
-    <t>參與觀察</t>
+    <t>参与观察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>文化相對論</t>
+    <t>文化相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E5%8F%B2</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E6%BC%94%E5%8C%96</t>
   </si>
   <si>
-    <t>人類演化</t>
+    <t>人类演化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
   </si>
   <si>
-    <t>親屬</t>
+    <t>亲属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%9A%E5%A7%BB</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>物質文化</t>
+    <t>物质文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
   </si>
   <si>
-    <t>種族</t>
+    <t>种族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5</t>
   </si>
   <si>
-    <t>性別</t>
+    <t>性别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%8C%96</t>
   </si>
   <si>
-    <t>社會化</t>
+    <t>社会化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>殖民主義</t>
+    <t>殖民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態人類學</t>
+    <t>生态人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟人類學</t>
+    <t>经济人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%AD%B8</t>
   </si>
   <si>
-    <t>民族學</t>
+    <t>民族学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%8C%BB%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -191,37 +191,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>媒體人類學</t>
+    <t>媒体人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫療人類學</t>
+    <t>医疗人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市人類學</t>
+    <t>都市人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A6%BA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>視覺人類學</t>
+    <t>视觉人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史人類學</t>
+    <t>历史人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>人類學史</t>
+    <t>人类学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>社會學史</t>
+    <t>社会学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%88%87%E8%83%BD%E5%8B%95%E6%80%A7</t>
   </si>
   <si>
-    <t>結構與能動性</t>
+    <t>结构与能动性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%B0%83%E6%9F%A5</t>
@@ -317,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算社會學</t>
+    <t>计算社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>社會變遷</t>
+    <t>社会变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>都市社會學</t>
+    <t>都市社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E9%98%B6%E5%B1%82</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%96%87%E5%8C%96</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E8%BB%8C%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>越軌社會學</t>
+    <t>越轨社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%8D%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>社會不平等</t>
+    <t>社会不平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業社會學</t>
+    <t>工业社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>網際網路社會學</t>
+    <t>网际网路社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
+    <t>社会运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organizational_theory</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E9%AB%94</t>
   </si>
   <si>
-    <t>群體</t>
+    <t>群体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E5%8C%96</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>社會企業</t>
+    <t>社会企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟地理學</t>
+    <t>经济地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%80%9D%E6%83%B3%E5%8F%B2</t>
   </si>
   <si>
-    <t>經濟思想史</t>
+    <t>经济思想史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會地理學</t>
+    <t>社会地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E8%AF%AD%E8%A8%80%E5%AD%A6</t>
@@ -587,19 +587,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會哲學</t>
+    <t>社会哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會統計學</t>
+    <t>社会统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%BB%9F%E7%A7%91%E5%AD%A6</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%AB%94%E7%B3%BB%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>世界體系理論</t>
+    <t>世界体系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91</t>
   </si>
   <si>
-    <t>學科</t>
+    <t>学科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E9%87%8E%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>田野調查</t>
+    <t>田野调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E4%BC%AF%E5%86%85%E7%89%B9%C2%B7%E6%B3%B0%E5%8B%92</t>
@@ -653,25 +653,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>經驗</t>
+    <t>经验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%A6%AC%E5%85%8B%E6%80%9D</t>
   </si>
   <si>
-    <t>卡爾·馬克思</t>
+    <t>卡尔·马克思</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%A0%BC%E8%92%99%E5%BE%B7%C2%B7%E4%BD%9B%E6%B4%9B%E4%BC%8A%E5%BE%B7</t>
@@ -683,13 +683,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E5%BC%97%E9%9B%B7%E6%BE%A4</t>
   </si>
   <si>
-    <t>詹姆斯·弗雷澤</t>
+    <t>詹姆斯·弗雷泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E4%BA%A8%E5%88%A9%C2%B7%E6%91%A9%E7%88%BE%E6%A0%B9</t>
   </si>
   <si>
-    <t>路易斯·亨利·摩爾根</t>
+    <t>路易斯·亨利·摩尔根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E5%BE%B7%C2%B7%E6%9D%8E%E7%B6%AD%E5%8F%B2%E9%99%80</t>
   </si>
   <si>
-    <t>克勞德·李維史陀</t>
+    <t>克劳德·李维史陀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%82%E5%B0%94%E5%B9%B2</t>
@@ -719,25 +719,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%B0%BC%E6%96%AF%E5%8B%9E%C2%B7%E9%A6%AC%E5%87%8C%E8%AB%BE%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>布朗尼斯勞·馬凌諾斯基</t>
+    <t>布朗尼斯劳·马凌诺斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%8C%B2%C2%B7%E9%AE%91%E4%BA%9E%E5%A3%AB</t>
   </si>
   <si>
-    <t>法蘭茲·鮑亞士</t>
+    <t>法兰兹·鲍亚士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BC%97%E5%88%97%C2%B7%E8%8A%AE%E5%85%8B%E9%87%8C%E5%A4%AB-%E5%B8%83%E6%9C%97</t>
@@ -749,13 +743,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6</t>
@@ -767,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>人際關係</t>
+    <t>人际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -779,25 +773,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%B5</t>
   </si>
   <si>
-    <t>象徵</t>
+    <t>象征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>神話</t>
+    <t>神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>親屬關係</t>
+    <t>亲属关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E5%AF%BC</t>
@@ -809,37 +803,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%91%9E%E5%85%8B%C2%B7%E6%B2%83%E7%88%BE%E5%A4%AB</t>
   </si>
   <si>
-    <t>艾瑞克·沃爾夫</t>
+    <t>艾瑞克·沃尔夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%A0%BC%E9%BA%97%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
   </si>
   <si>
-    <t>瑪格麗特·米德</t>
+    <t>玛格丽特·米德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97</t>
   </si>
   <si>
-    <t>華爾街</t>
+    <t>华尔街</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>資訊技術</t>
+    <t>资讯技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>藝術人類學</t>
+    <t>艺术人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知人類學</t>
+    <t>认知人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E6%96%87%E5%8C%96%E7%A0%94%E7%A9%B6</t>
@@ -851,43 +845,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展人類學</t>
+    <t>发展人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E6%A4%8D%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>民族植物學</t>
+    <t>民族植物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E9%9F%B3%E6%A8%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>民族音樂學</t>
+    <t>民族音乐学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化人類學</t>
+    <t>演化人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>女性主義人類學</t>
+    <t>女性主义人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%B5%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>象徵人類學</t>
+    <t>象征人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -899,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -4663,7 +4657,7 @@
         <v>233</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4689,10 +4683,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4718,10 +4712,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4747,10 +4741,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4776,10 +4770,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4805,10 +4799,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4834,10 +4828,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>7</v>
@@ -4863,10 +4857,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>4</v>
@@ -4892,10 +4886,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4921,10 +4915,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -4950,10 +4944,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>5</v>
@@ -4979,10 +4973,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -5008,10 +5002,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5037,10 +5031,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5066,10 +5060,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5095,10 +5089,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5124,10 +5118,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5153,10 +5147,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5182,10 +5176,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5211,10 +5205,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5240,10 +5234,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5269,10 +5263,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5298,10 +5292,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5327,10 +5321,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5356,10 +5350,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5385,10 +5379,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5414,10 +5408,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5443,10 +5437,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5472,10 +5466,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -5501,10 +5495,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5530,10 +5524,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>

--- a/xlsx/文化人类学_intext.xlsx
+++ b/xlsx/文化人类学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>人類學</t>
   </si>
   <si>
-    <t>政策_政策_政治_文化人类学</t>
+    <t>体育运动_体育运动_文化_文化人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%B3%AA%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
